--- a/data/match_9.xlsx
+++ b/data/match_9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton.shevchuk\dev\euroleague\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848D9B82-18E5-40FD-A6CB-844D67B5A92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F52A1F9-05F3-451B-BFE5-8797D63E30D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="49">
   <si>
     <t>№</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Зубатов Михаил</t>
-  </si>
-  <si>
-    <t>Оксанич Кирилл</t>
   </si>
   <si>
     <t>0:2</t>
@@ -553,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,13 +634,13 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -667,7 +664,7 @@
         <v>3</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -685,19 +682,19 @@
         <v>3</v>
       </c>
       <c r="R2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -708,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -720,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -732,31 +729,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -779,7 +776,7 @@
         <v>14.5</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -803,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -821,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="P4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -833,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -850,31 +847,31 @@
         <v>14.5</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -898,13 +895,13 @@
         <v>3</v>
       </c>
       <c r="R5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -1063,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -1093,7 +1090,7 @@
         <v>3</v>
       </c>
       <c r="L8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1105,13 +1102,13 @@
         <v>5</v>
       </c>
       <c r="P8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1123,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1134,7 +1131,7 @@
         <v>8.5</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>18</v>
@@ -1202,13 +1199,13 @@
         <v>4.5</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1244,13 +1241,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
         <v>32</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10" t="s">
-        <v>33</v>
       </c>
       <c r="S10">
         <v>2</v>
@@ -1273,7 +1270,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1291,25 +1288,25 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1327,7 +1324,7 @@
         <v>2</v>
       </c>
       <c r="T11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1344,13 +1341,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1362,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1380,13 +1377,13 @@
         <v>3</v>
       </c>
       <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
         <v>40</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12" t="s">
-        <v>41</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -1404,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="W12">
         <v>2</v>
@@ -1415,7 +1412,7 @@
         <v>6.5</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>19</v>
@@ -1451,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1554,61 +1551,61 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>4.5</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15">
         <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15" t="s">
-        <v>21</v>
-      </c>
-      <c r="O15">
-        <v>3</v>
-      </c>
-      <c r="P15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-      <c r="R15" t="s">
-        <v>21</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
       </c>
       <c r="T15" t="s">
         <v>23</v>
@@ -1617,101 +1614,101 @@
         <v>0</v>
       </c>
       <c r="V15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>6.5</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
         <v>21</v>
@@ -1720,34 +1717,34 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P17" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R17" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" t="s">
         <v>21</v>
@@ -1756,24 +1753,24 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W17">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1785,7 +1782,7 @@
         <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1803,110 +1800,39 @@
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19">
-        <v>5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-      <c r="P19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19" t="s">
-        <v>21</v>
-      </c>
-      <c r="W19">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W19">
-    <sortCondition ref="B1:B19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W18">
+    <sortCondition ref="B1:B18"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
